--- a/data/case1/14/Q1_13.xlsx
+++ b/data/case1/14/Q1_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.091035944889796383</v>
+        <v>0.094724588703769541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999592577069</v>
+        <v>-0.0059999999677984306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999688564714</v>
+        <v>-0.0039999999751074711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999411448641</v>
+        <v>-0.0079999999527835541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999740732974</v>
+        <v>-0.0029999999788667964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999794357848</v>
+        <v>-0.001999999982777112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999254394289</v>
+        <v>-0.0099999999398239225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999258137962</v>
+        <v>-0.0099999999407116569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999813893332</v>
+        <v>-0.001999999985863532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999835569326</v>
+        <v>0.054054599954188376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.019849229517126865</v>
+        <v>-0.0029999999825491841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999738345444</v>
+        <v>-0.0034999999793074998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999744886878</v>
+        <v>-0.003499999975863588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999447029069</v>
+        <v>-0.0079999999507611719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.023874136161081694</v>
+        <v>-0.00099999998775945897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999853714812</v>
+        <v>-0.0019999999818369751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999843864913</v>
+        <v>-0.0019999999810016433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999706328282</v>
+        <v>-0.003999999970089263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999725894853</v>
+        <v>-0.0039999999784310347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999704694034</v>
+        <v>-0.0039999999765711891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999701496591</v>
+        <v>-0.0039999999762825311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999698858701</v>
+        <v>-0.0039999999761084482</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999599972256</v>
+        <v>-0.0049999999679375406</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999985530998</v>
+        <v>-0.019999999883750341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999853227202</v>
+        <v>-0.019999999882048591</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999761288194</v>
+        <v>-0.0024999999799071304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999761976532</v>
+        <v>-0.0024999999796349037</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999801054713</v>
+        <v>-0.0019999999813080649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.022964746337947872</v>
+        <v>0.053019046948836746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0065495943444404681</v>
+        <v>-0.035378971998003106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999436909377</v>
+        <v>-0.006999999948879676</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999230817593</v>
+        <v>-0.0099999999323934219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999632733818</v>
+        <v>-0.0039999999644955153</v>
       </c>
     </row>
   </sheetData>
